--- a/parameters/parameters.xlsx
+++ b/parameters/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3325584-9DAA-4C49-B828-5D8F3CFE1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7160E-B4C4-493C-94AF-61053344A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="545">
   <si>
     <t>CO2EFFTB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1526,11 +1526,6 @@
     <t>irrigate</t>
   </si>
   <si>
-    <t>2019-10-15: {amount: 10, efficiency: 0.7}
-2019-11-15: {amount:  5, efficiency: 0.7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apply_npk</t>
   </si>
   <si>
@@ -2219,6 +2214,23 @@
       </rPr>
       <t>LAI</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-01: {amount: 10, efficiency: 0.7}
+2019-11-15: {amount:  5, efficiency: 0.7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigate_month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年的逐月灌溉数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km^3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2305,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2333,6 +2345,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2615,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3178,13 +3191,13 @@
         <v>234</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G28">
         <v>0.43</v>
       </c>
       <c r="H28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5">
@@ -4409,10 +4422,10 @@
     </row>
     <row r="96" spans="1:6" ht="16.5">
       <c r="B96" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>541</v>
       </c>
       <c r="F96" s="1">
         <v>0.13650000000000001</v>
@@ -4429,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985104-09A1-43F6-A401-EF99B34D1057}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4682,7 +4695,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.75">
+    <row r="13" spans="1:9" ht="57">
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -4699,7 +4712,7 @@
         <v>359</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -4868,10 +4881,10 @@
         <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5">
@@ -4908,7 +4921,7 @@
         <v>238</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
@@ -4968,7 +4981,7 @@
         <v>239</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5">
@@ -4988,7 +5001,7 @@
         <v>240</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42.75">
@@ -5008,7 +5021,7 @@
         <v>365</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5">
@@ -5273,7 +5286,7 @@
         <v>368</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="99.75">
@@ -5293,7 +5306,7 @@
         <v>369</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="114">
@@ -5313,7 +5326,7 @@
         <v>370</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="57">
@@ -5333,7 +5346,7 @@
         <v>371</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5">
@@ -5373,7 +5386,7 @@
         <v>249</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
@@ -6198,10 +6211,10 @@
     </row>
     <row r="96" spans="1:6" ht="16.5">
       <c r="B96" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>541</v>
       </c>
       <c r="F96" s="1">
         <v>0.1</v>
@@ -6219,7 +6232,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6250,13 +6263,13 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G1" t="s">
         <v>416</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I1" t="s">
         <v>48</v>
@@ -6264,17 +6277,17 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="B2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -6283,22 +6296,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="B3" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
@@ -6307,24 +6320,24 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="B4" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -6333,24 +6346,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="B5" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -6359,50 +6372,50 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="B6" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H6" s="9">
         <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="B7" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G7" s="9">
         <v>0.4</v>
@@ -6411,12 +6424,12 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6429,24 +6442,24 @@
         <v>120</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
       <c r="B9" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G9" s="9">
         <v>360</v>
@@ -6455,24 +6468,24 @@
         <v>360</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -6481,50 +6494,50 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="B11" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="B12" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6533,24 +6546,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="B13" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -6559,24 +6572,24 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="B14" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -6585,24 +6598,24 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
       <c r="B15" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6611,24 +6624,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
       <c r="B16" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -6637,24 +6650,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="16.5">
       <c r="B17" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -6663,24 +6676,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.5">
       <c r="B18" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G18" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6689,24 +6702,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.5">
       <c r="B19" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -6715,24 +6728,24 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.5">
       <c r="B20" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -6741,24 +6754,24 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16.5">
       <c r="B21" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -6767,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="16.5">
@@ -6786,7 +6799,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6837,7 +6850,7 @@
         <v>379</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
         <v>380</v>
@@ -6858,7 +6871,7 @@
         <v>381</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
         <v>382</v>
@@ -6876,7 +6889,7 @@
         <v>386</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E4" t="s">
         <v>382</v>
@@ -6894,7 +6907,7 @@
         <v>387</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E5" t="s">
         <v>382</v>
@@ -6912,7 +6925,7 @@
         <v>388</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E6" t="s">
         <v>382</v>
@@ -6932,7 +6945,7 @@
         <v>391</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E7" t="s">
         <v>392</v>
@@ -6950,7 +6963,7 @@
         <v>396</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E8" t="s">
         <v>399</v>
@@ -6968,7 +6981,7 @@
         <v>397</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s">
         <v>399</v>
@@ -6986,7 +6999,7 @@
         <v>398</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" t="s">
         <v>399</v>
@@ -7006,7 +7019,7 @@
         <v>406</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -7021,7 +7034,7 @@
         <v>407</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F12">
         <v>0.03</v>
@@ -7036,7 +7049,7 @@
         <v>408</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F13">
         <v>0.2</v>
@@ -7051,7 +7064,7 @@
         <v>409</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -7066,7 +7079,7 @@
         <v>410</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F15">
         <v>-0.3</v>
@@ -7081,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49045C88-32A4-4B2B-84CD-067031BAF729}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7093,7 +7106,7 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="85.625" customWidth="1"/>
-    <col min="7" max="7" width="57.625" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7113,10 +7126,10 @@
         <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
         <v>424</v>
-      </c>
-      <c r="G1" t="s">
-        <v>425</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -7127,79 +7140,79 @@
         <v>418</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7219,23 +7232,126 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="B11" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6.7531809999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>13.082191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>14.782736999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
+      <c r="C14">
+        <v>4</v>
+      </c>
       <c r="E14" s="9"/>
+      <c r="F14">
+        <v>12.566888000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>13.715769999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>15.535583000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>13.780590999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>16.329121000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>9.2974800000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>8.0121719999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>7.5920719999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>7.7536139999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/parameters/parameters.xlsx
+++ b/parameters/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7160E-B4C4-493C-94AF-61053344A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9562F5E9-02EF-48E6-B852-63C4E51F29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="site" sheetId="3" r:id="rId3"/>
     <sheet name="soil" sheetId="4" r:id="rId4"/>
     <sheet name="management" sheetId="5" r:id="rId5"/>
-    <sheet name="rapeseed" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="545">
   <si>
     <t>CO2EFFTB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,9 +809,6 @@
   </si>
   <si>
     <t>[0.00, 1.000,               2.00, 1.000]</t>
-  </si>
-  <si>
-    <t>[0.000, 0.500,               0.100, 0.500,               0.200, 0.400,               0.350, 0.220,               0.400, 0.170,               0.500, 0.130,               0.700, 0.070,               0.900, 0.030,               1.200, 0.000,               2.000, 0.000]</t>
   </si>
   <si>
     <t>[0.000, 0.650,               0.100, 0.650,               0.250, 0.700,               0.500, 0.500,               0.646, 0.300,               0.950, 0.000,               2.000, 0.000]</t>
@@ -2231,6 +2227,10 @@
   </si>
   <si>
     <t>km^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000, 0.500,               0.100, 0.500,               0.200, 0.400,               0.350, 0.220,               0.400, 0.170,               0.500, 0.130,               0.700, 0.070,               0.900, 0.030,               1.200, 0.000,               2.000, 0.000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2345,7 +2345,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2628,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2675,7 +2674,7 @@
     </row>
     <row r="2" spans="1:9" ht="42.75">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2684,13 +2683,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2702,13 +2701,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -2720,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -2741,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -2758,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>52</v>
@@ -2775,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>55</v>
@@ -2786,7 +2785,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>16</v>
@@ -2795,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>56</v>
@@ -2812,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>57</v>
@@ -2829,10 +2828,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -2849,7 +2848,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>55</v>
@@ -2872,7 +2871,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>54</v>
@@ -2895,13 +2894,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -2913,7 +2912,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>60</v>
@@ -2930,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>60</v>
@@ -2947,7 +2946,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>61</v>
@@ -2967,7 +2966,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>61</v>
@@ -2987,7 +2986,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>60</v>
@@ -3004,13 +3003,13 @@
         <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -3025,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>64</v>
@@ -3048,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>65</v>
@@ -3074,13 +3073,13 @@
         <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
@@ -3091,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>73</v>
@@ -3108,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>69</v>
@@ -3125,7 +3124,7 @@
         <v>76</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>61</v>
@@ -3148,7 +3147,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>52</v>
@@ -3168,7 +3167,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>233</v>
@@ -3185,19 +3184,19 @@
         <v>81</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>234</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G28">
         <v>0.43</v>
       </c>
       <c r="H28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5">
@@ -3208,7 +3207,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>235</v>
@@ -3225,7 +3224,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>53</v>
@@ -3242,7 +3241,7 @@
         <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>62</v>
@@ -3259,7 +3258,7 @@
         <v>85</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>62</v>
@@ -3279,7 +3278,7 @@
         <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>159</v>
@@ -3302,7 +3301,7 @@
         <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>159</v>
@@ -3325,7 +3324,7 @@
         <v>89</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>159</v>
@@ -3348,7 +3347,7 @@
         <v>90</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>159</v>
@@ -3374,7 +3373,7 @@
         <v>92</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>60</v>
@@ -3391,7 +3390,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>65</v>
@@ -3414,7 +3413,7 @@
         <v>94</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>65</v>
@@ -3437,7 +3436,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>65</v>
@@ -3460,7 +3459,7 @@
         <v>96</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>65</v>
@@ -3483,7 +3482,7 @@
         <v>97</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>233</v>
@@ -3503,13 +3502,13 @@
         <v>99</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>245</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57">
@@ -3520,13 +3519,13 @@
         <v>100</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="57">
@@ -3537,13 +3536,13 @@
         <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.5">
@@ -3554,13 +3553,13 @@
         <v>101</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5">
@@ -3574,7 +3573,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>60</v>
@@ -3591,13 +3590,13 @@
         <v>105</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
@@ -3608,13 +3607,13 @@
         <v>106</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
@@ -3628,7 +3627,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>60</v>
@@ -3645,7 +3644,7 @@
         <v>109</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>60</v>
@@ -3662,7 +3661,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>56</v>
@@ -3679,7 +3678,7 @@
         <v>111</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>56</v>
@@ -3699,7 +3698,7 @@
         <v>113</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>160</v>
@@ -3716,7 +3715,7 @@
         <v>114</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>161</v>
@@ -3733,7 +3732,7 @@
         <v>115</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>160</v>
@@ -3753,13 +3752,13 @@
         <v>117</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5">
@@ -3770,7 +3769,7 @@
         <v>118</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>60</v>
@@ -3787,7 +3786,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>60</v>
@@ -3804,7 +3803,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>159</v>
@@ -3821,7 +3820,7 @@
         <v>120</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>60</v>
@@ -3838,7 +3837,7 @@
         <v>121</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>159</v>
@@ -3855,7 +3854,7 @@
         <v>122</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>159</v>
@@ -3872,7 +3871,7 @@
         <v>123</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>159</v>
@@ -3889,7 +3888,7 @@
         <v>124</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>61</v>
@@ -3906,7 +3905,7 @@
         <v>125</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>60</v>
@@ -3926,13 +3925,13 @@
         <v>137</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5">
@@ -3943,7 +3942,7 @@
         <v>138</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>60</v>
@@ -3960,7 +3959,7 @@
         <v>139</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>60</v>
@@ -3977,7 +3976,7 @@
         <v>140</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>159</v>
@@ -3994,7 +3993,7 @@
         <v>141</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>60</v>
@@ -4011,7 +4010,7 @@
         <v>142</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>159</v>
@@ -4028,7 +4027,7 @@
         <v>143</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>159</v>
@@ -4045,7 +4044,7 @@
         <v>144</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>159</v>
@@ -4062,7 +4061,7 @@
         <v>145</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>61</v>
@@ -4079,13 +4078,13 @@
         <v>127</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5">
@@ -4096,7 +4095,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>60</v>
@@ -4113,7 +4112,7 @@
         <v>129</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>60</v>
@@ -4130,7 +4129,7 @@
         <v>136</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>159</v>
@@ -4147,7 +4146,7 @@
         <v>130</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>60</v>
@@ -4164,7 +4163,7 @@
         <v>131</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>159</v>
@@ -4181,7 +4180,7 @@
         <v>132</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>159</v>
@@ -4198,7 +4197,7 @@
         <v>133</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>159</v>
@@ -4215,7 +4214,7 @@
         <v>134</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>61</v>
@@ -4235,7 +4234,7 @@
         <v>147</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>60</v>
@@ -4252,7 +4251,7 @@
         <v>148</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>60</v>
@@ -4269,10 +4268,10 @@
         <v>224</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>60</v>
@@ -4289,7 +4288,7 @@
         <v>150</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>60</v>
@@ -4306,7 +4305,7 @@
         <v>151</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>60</v>
@@ -4323,7 +4322,7 @@
         <v>152</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>60</v>
@@ -4340,7 +4339,7 @@
         <v>153</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>60</v>
@@ -4357,7 +4356,7 @@
         <v>154</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>60</v>
@@ -4377,7 +4376,7 @@
         <v>156</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>162</v>
@@ -4394,7 +4393,7 @@
         <v>157</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>162</v>
@@ -4411,7 +4410,7 @@
         <v>158</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>162</v>
@@ -4422,10 +4421,10 @@
     </row>
     <row r="96" spans="1:6" ht="16.5">
       <c r="B96" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>540</v>
       </c>
       <c r="F96" s="1">
         <v>0.13650000000000001</v>
@@ -4440,10 +4439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985104-09A1-43F6-A401-EF99B34D1057}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4489,7 +4488,7 @@
     </row>
     <row r="2" spans="1:9" ht="42.75">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4498,13 +4497,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -4516,13 +4515,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4534,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -4555,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -4572,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>52</v>
@@ -4589,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>55</v>
@@ -4600,7 +4599,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>16</v>
@@ -4609,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>56</v>
@@ -4626,7 +4625,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>57</v>
@@ -4643,10 +4642,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -4663,7 +4662,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>55</v>
@@ -4683,7 +4682,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>54</v>
@@ -4703,16 +4702,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -4723,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>60</v>
@@ -4743,7 +4742,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>60</v>
@@ -4760,7 +4759,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>61</v>
@@ -4777,7 +4776,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>61</v>
@@ -4794,7 +4793,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>60</v>
@@ -4811,13 +4810,13 @@
         <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -4832,7 +4831,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>64</v>
@@ -4852,7 +4851,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>65</v>
@@ -4875,16 +4874,16 @@
         <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5">
@@ -4895,7 +4894,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>73</v>
@@ -4912,7 +4911,7 @@
         <v>75</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>69</v>
@@ -4921,7 +4920,7 @@
         <v>238</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5">
@@ -4932,7 +4931,7 @@
         <v>76</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>61</v>
@@ -4949,7 +4948,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>52</v>
@@ -4972,7 +4971,7 @@
         <v>80</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>233</v>
@@ -4981,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5">
@@ -4992,7 +4991,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>234</v>
@@ -5001,7 +5000,7 @@
         <v>240</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42.75">
@@ -5012,16 +5011,16 @@
         <v>82</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5">
@@ -5032,7 +5031,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>53</v>
@@ -5046,13 +5045,13 @@
         <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5">
@@ -5063,13 +5062,13 @@
         <v>85</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5">
@@ -5083,7 +5082,7 @@
         <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>159</v>
@@ -5103,7 +5102,7 @@
         <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>159</v>
@@ -5123,7 +5122,7 @@
         <v>89</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>159</v>
@@ -5143,7 +5142,7 @@
         <v>90</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>159</v>
@@ -5166,7 +5165,7 @@
         <v>92</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>60</v>
@@ -5183,7 +5182,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>65</v>
@@ -5203,7 +5202,7 @@
         <v>94</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>65</v>
@@ -5223,7 +5222,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>65</v>
@@ -5240,7 +5239,7 @@
         <v>96</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>65</v>
@@ -5257,7 +5256,7 @@
         <v>97</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>233</v>
@@ -5277,16 +5276,16 @@
         <v>99</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="99.75">
@@ -5297,16 +5296,16 @@
         <v>100</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="114">
@@ -5317,16 +5316,16 @@
         <v>102</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="57">
@@ -5337,16 +5336,16 @@
         <v>101</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5">
@@ -5360,7 +5359,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>60</v>
@@ -5377,16 +5376,16 @@
         <v>105</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
@@ -5397,13 +5396,13 @@
         <v>106</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
@@ -5417,7 +5416,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>60</v>
@@ -5434,7 +5433,7 @@
         <v>109</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>60</v>
@@ -5451,7 +5450,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>56</v>
@@ -5468,7 +5467,7 @@
         <v>111</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>56</v>
@@ -5488,7 +5487,7 @@
         <v>113</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>160</v>
@@ -5505,7 +5504,7 @@
         <v>114</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>161</v>
@@ -5522,7 +5521,7 @@
         <v>115</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>160</v>
@@ -5542,13 +5541,13 @@
         <v>117</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5">
@@ -5559,7 +5558,7 @@
         <v>118</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>60</v>
@@ -5576,7 +5575,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>60</v>
@@ -5593,7 +5592,7 @@
         <v>135</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>159</v>
@@ -5610,7 +5609,7 @@
         <v>120</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>60</v>
@@ -5627,7 +5626,7 @@
         <v>121</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>159</v>
@@ -5644,7 +5643,7 @@
         <v>122</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>159</v>
@@ -5661,7 +5660,7 @@
         <v>123</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>159</v>
@@ -5678,7 +5677,7 @@
         <v>124</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>61</v>
@@ -5695,7 +5694,7 @@
         <v>125</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>60</v>
@@ -5715,13 +5714,13 @@
         <v>137</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5">
@@ -5732,7 +5731,7 @@
         <v>138</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>60</v>
@@ -5749,7 +5748,7 @@
         <v>139</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>60</v>
@@ -5766,7 +5765,7 @@
         <v>140</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>159</v>
@@ -5783,7 +5782,7 @@
         <v>141</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>60</v>
@@ -5800,7 +5799,7 @@
         <v>142</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>159</v>
@@ -5817,7 +5816,7 @@
         <v>143</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>159</v>
@@ -5834,7 +5833,7 @@
         <v>144</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>159</v>
@@ -5851,7 +5850,7 @@
         <v>145</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>61</v>
@@ -5868,13 +5867,13 @@
         <v>127</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5">
@@ -5885,7 +5884,7 @@
         <v>128</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>60</v>
@@ -5902,7 +5901,7 @@
         <v>129</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>60</v>
@@ -5919,7 +5918,7 @@
         <v>136</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>159</v>
@@ -5936,7 +5935,7 @@
         <v>130</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>60</v>
@@ -5953,7 +5952,7 @@
         <v>131</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>159</v>
@@ -5970,7 +5969,7 @@
         <v>132</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>159</v>
@@ -5987,7 +5986,7 @@
         <v>133</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>159</v>
@@ -6004,7 +6003,7 @@
         <v>134</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>61</v>
@@ -6024,7 +6023,7 @@
         <v>147</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>60</v>
@@ -6041,7 +6040,7 @@
         <v>148</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>60</v>
@@ -6058,10 +6057,10 @@
         <v>224</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>60</v>
@@ -6078,7 +6077,7 @@
         <v>150</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>60</v>
@@ -6095,7 +6094,7 @@
         <v>151</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>60</v>
@@ -6112,7 +6111,7 @@
         <v>152</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>60</v>
@@ -6129,7 +6128,7 @@
         <v>153</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>60</v>
@@ -6146,7 +6145,7 @@
         <v>154</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>60</v>
@@ -6166,7 +6165,7 @@
         <v>156</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>162</v>
@@ -6183,7 +6182,7 @@
         <v>157</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>162</v>
@@ -6200,24 +6199,13 @@
         <v>158</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>162</v>
       </c>
       <c r="F95" s="1">
         <v>7.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5">
-      <c r="B96" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -6231,9 +6219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D40DB-0A91-4EB5-A2F6-0C1E7B983915}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6248,13 +6234,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" t="s">
         <v>413</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>414</v>
-      </c>
-      <c r="C1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -6263,13 +6249,13 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
         <v>48</v>
@@ -6277,17 +6263,17 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="B2" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -6296,22 +6282,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="B3" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
@@ -6320,24 +6306,24 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="B4" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -6346,24 +6332,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="B5" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -6372,50 +6358,50 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="B6" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H6" s="9">
         <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="B7" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G7" s="9">
         <v>0.4</v>
@@ -6424,12 +6410,12 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="B8" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6442,24 +6428,24 @@
         <v>120</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
       <c r="B9" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G9" s="9">
         <v>360</v>
@@ -6468,24 +6454,24 @@
         <v>360</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -6494,50 +6480,50 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="B11" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="B12" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6546,24 +6532,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="B13" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -6572,24 +6558,24 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="B14" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -6598,24 +6584,24 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
       <c r="B15" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6624,24 +6610,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
       <c r="B16" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -6650,24 +6636,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="16.5">
       <c r="B17" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -6676,24 +6662,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.5">
       <c r="B18" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G18" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6702,24 +6688,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.5">
       <c r="B19" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -6728,24 +6714,24 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.5">
       <c r="B20" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -6754,24 +6740,24 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16.5">
       <c r="B21" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -6780,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="16.5">
@@ -6798,9 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884065A1-245C-40D1-90AC-1300C299C49B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6830,7 +6814,7 @@
         <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
@@ -6841,40 +6825,40 @@
     </row>
     <row r="2" spans="1:8" ht="142.5">
       <c r="A2" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>380</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" t="s">
         <v>381</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" t="s">
-        <v>382</v>
       </c>
       <c r="F3">
         <v>0.104</v>
@@ -6883,16 +6867,16 @@
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F4">
         <v>0.3</v>
@@ -6901,16 +6885,16 @@
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F5">
         <v>0.41</v>
@@ -6919,16 +6903,16 @@
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6">
         <v>0.06</v>
@@ -6936,37 +6920,37 @@
     </row>
     <row r="7" spans="1:8" ht="185.25">
       <c r="A7" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E7" t="s">
         <v>391</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E7" t="s">
-        <v>392</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F8">
         <v>25.585999999999999</v>
@@ -6975,16 +6959,16 @@
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9">
         <v>1.47</v>
@@ -6993,16 +6977,16 @@
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E10" t="s">
         <v>398</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E10" t="s">
-        <v>399</v>
       </c>
       <c r="F10">
         <v>1.47</v>
@@ -7010,16 +6994,16 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -7028,13 +7012,13 @@
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F12">
         <v>0.03</v>
@@ -7043,13 +7027,13 @@
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F13">
         <v>0.2</v>
@@ -7058,13 +7042,13 @@
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -7073,13 +7057,13 @@
     <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F15">
         <v>-0.3</v>
@@ -7096,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49045C88-32A4-4B2B-84CD-067031BAF729}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7126,10 +7110,10 @@
         <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" t="s">
         <v>423</v>
-      </c>
-      <c r="G1" t="s">
-        <v>424</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -7137,82 +7121,82 @@
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7223,44 +7207,44 @@
     </row>
     <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="B11" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" t="s">
         <v>543</v>
       </c>
-      <c r="E11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <v>6.7531809999999997</v>
       </c>
     </row>
@@ -7358,1426 +7342,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68819C98-4469-420F-AFBC-18E4A8F56D5F}">
-  <dimension ref="A1:I95"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="81.5" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="B11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5">
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5">
-      <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5">
-      <c r="B15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5">
-      <c r="B16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5">
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5">
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5">
-      <c r="B19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5">
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5">
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5">
-      <c r="B24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5">
-      <c r="B25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5">
-      <c r="B26" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5">
-      <c r="B28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5">
-      <c r="B29" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5">
-      <c r="B30" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5">
-      <c r="B31" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5">
-      <c r="B32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5">
-      <c r="B34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5">
-      <c r="B35" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5">
-      <c r="B36" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5">
-      <c r="B38" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5">
-      <c r="B39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5">
-      <c r="B40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5">
-      <c r="B41" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5">
-      <c r="B42" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5">
-      <c r="B44" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5">
-      <c r="B45" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5">
-      <c r="B46" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5">
-      <c r="B48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5">
-      <c r="B49" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5">
-      <c r="B51" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5">
-      <c r="B52" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5">
-      <c r="B53" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5">
-      <c r="A54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5">
-      <c r="B55" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5">
-      <c r="B56" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5">
-      <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5">
-      <c r="B58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5">
-      <c r="B59" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5">
-      <c r="B60" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5">
-      <c r="B61" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5">
-      <c r="B62" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5">
-      <c r="B63" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5">
-      <c r="B64" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5">
-      <c r="B65" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.5">
-      <c r="B66" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5">
-      <c r="B68" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5">
-      <c r="B69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5">
-      <c r="B70" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="16.5">
-      <c r="B71" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5">
-      <c r="B72" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.5">
-      <c r="B73" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5">
-      <c r="B74" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16.5">
-      <c r="B75" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.5">
-      <c r="B76" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16.5">
-      <c r="B77" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5">
-      <c r="B78" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16.5">
-      <c r="B79" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5">
-      <c r="B80" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="16.5">
-      <c r="B81" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5">
-      <c r="B82" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="16.5">
-      <c r="B83" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="16.5">
-      <c r="B84" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="16.5">
-      <c r="A85" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.5">
-      <c r="B86" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25">
-      <c r="B88" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.25">
-      <c r="B89" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17.25">
-      <c r="B90" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16.5">
-      <c r="B91" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25">
-      <c r="B92" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="16.5">
-      <c r="A93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="16.5">
-      <c r="B94" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="16.5">
-      <c r="B95" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/parameters/parameters.xlsx
+++ b/parameters/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9562F5E9-02EF-48E6-B852-63C4E51F29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE48E9-82D5-4691-82AF-1905508019D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2628,7 +2628,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F43" sqref="F43:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4441,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985104-09A1-43F6-A401-EF99B34D1057}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/parameters/parameters.xlsx
+++ b/parameters/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE48E9-82D5-4691-82AF-1905508019D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AAF85-48BC-4235-A0B5-97665B178F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="553">
   <si>
     <t>CO2EFFTB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>multiplication factor for EFF to account for an increasing CO2 concentration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2098,26 +2094,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.00, 0.00550,
-               0.18, 0.00550,
-               0.40, 0.00110,
-               0.65, 0.00200,
-               0.79, 0.00170,
-               1.00, 0.00200,
-               1.55, 0.00210,
-               2.00, 0.00220]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 0.0003,
-               0.61, 0.0003,
-               0.80, 0.0029,
-               1.00, 0.0025,
-               1.55, 0.0025,
-               2.00, 0.0018]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0.00, 0.400,
                0.65, 0.400,
                1.00, 0.600,
@@ -2127,12 +2103,6 @@
   <si>
     <t>[10.0, 0.540,
                40.0, 0.360]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 40.00,
-               1.90, 40.00,
-               2.00, 40.00]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2231,6 +2201,97 @@
   </si>
   <si>
     <t>[0.000, 0.500,               0.100, 0.500,               0.200, 0.400,               0.350, 0.220,               0.400, 0.170,               0.500, 0.130,               0.700, 0.070,               0.900, 0.030,               1.200, 0.000,               2.000, 0.000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.0075,
+               0.18, 0.0075,
+               0.65, 0.0024,
+               1.00, 0.0024,
+               1.55, 0.0023,
+               2.00, 0.0019]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubei_rice_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubei_rice_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.0003,
+               0.90, 0.0003,
+               2.00, 0.0000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.0030,
+               0.61, 0.0030,
+               0.80, 0.0029,
+               1.00, 0.0025,
+               1.55, 0.0025,
+               2.00, 0.0018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 50.00,
+               0.20, 45.00,
+               0.35, 40.00,
+               0.70, 40.00,
+               0.80, 50.00,
+               2.00, 50.00]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 40.00,
+               1.00, 40.00,
+               1.90, 40.00,
+               2.00, 40.00]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000, 0.400,
+               0.250, 0.200,
+               0.400, 0.200,
+               0.500, 0.500,
+               0.700, 0.400,
+               0.720, 0.000,
+               1.000, 0.000,
+               2.000, 0.000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.800, 0.000,
+               0.940, 0.300,
+               1.000, 0.700,
+               1.130, 1.000,
+               2.000, 1.000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000, 0.650,
+               0.530, 0.570,
+               0.800, 0.350,
+               0.940, 0.200,
+               1.000, 0.150,
+               1.130, 0.000,
+               2.000, 0.000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.000, 0.350,
+               0.530, 0.430,
+               0.800, 0.650,
+               0.940, 0.500,
+               1.000, 0.150,
+               1.130, 0.000,
+               2.000, 0.000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2627,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F45"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2645,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2654,27 +2715,27 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2683,13 +2744,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2698,52 +2759,52 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="42.75">
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2751,16 +2812,16 @@
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2">
         <v>30</v>
@@ -2768,16 +2829,16 @@
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2">
         <v>120</v>
@@ -2785,19 +2846,19 @@
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -2805,16 +2866,16 @@
     </row>
     <row r="9" spans="1:9" ht="16.5">
       <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2">
         <v>14</v>
@@ -2825,16 +2886,16 @@
     </row>
     <row r="10" spans="1:9" ht="16.5">
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
@@ -2842,16 +2903,16 @@
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2">
         <v>1000</v>
@@ -2865,16 +2926,16 @@
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2">
         <v>950</v>
@@ -2888,34 +2949,34 @@
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2923,16 +2984,16 @@
     </row>
     <row r="15" spans="1:9" ht="16.5">
       <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -2940,16 +3001,16 @@
     </row>
     <row r="16" spans="1:9" ht="16.5">
       <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
@@ -2960,16 +3021,16 @@
     </row>
     <row r="17" spans="1:8" ht="16.5">
       <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2">
         <v>70</v>
@@ -2980,16 +3041,16 @@
     </row>
     <row r="18" spans="1:8" ht="16.5">
       <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2">
         <v>0.3</v>
@@ -2997,37 +3058,37 @@
     </row>
     <row r="19" spans="1:8" ht="42.75">
       <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2">
         <v>50</v>
@@ -3041,16 +3102,16 @@
     </row>
     <row r="21" spans="1:8" ht="16.5">
       <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2">
         <v>8.2000000000000007E-3</v>
@@ -3064,36 +3125,36 @@
     </row>
     <row r="22" spans="1:8" ht="28.5">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
       <c r="B23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -3101,33 +3162,33 @@
     </row>
     <row r="24" spans="1:8" ht="16.5">
       <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5">
       <c r="B25" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <v>31.3</v>
@@ -3141,16 +3202,16 @@
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="B26" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -3158,76 +3219,76 @@
     </row>
     <row r="27" spans="1:8" ht="16.5">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5">
       <c r="B28" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G28">
         <v>0.43</v>
       </c>
       <c r="H28" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5">
       <c r="B29" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
       <c r="B30" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2">
         <v>360</v>
@@ -3235,53 +3296,53 @@
     </row>
     <row r="31" spans="1:8" ht="42.75">
       <c r="B31" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5">
       <c r="B32" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2">
         <v>0.68500000000000005</v>
@@ -3295,16 +3356,16 @@
     </row>
     <row r="34" spans="1:8" ht="16.5">
       <c r="B34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="2">
         <v>0.70899999999999996</v>
@@ -3318,16 +3379,16 @@
     </row>
     <row r="35" spans="1:8" ht="16.5">
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="2">
         <v>0.69399999999999995</v>
@@ -3341,16 +3402,16 @@
     </row>
     <row r="36" spans="1:8" ht="16.5">
       <c r="B36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" s="2">
         <v>0.66200000000000003</v>
@@ -3364,19 +3425,19 @@
     </row>
     <row r="37" spans="1:8" ht="16.5">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
@@ -3384,16 +3445,16 @@
     </row>
     <row r="38" spans="1:8" ht="16.5">
       <c r="B38" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2">
         <v>0.03</v>
@@ -3407,16 +3468,16 @@
     </row>
     <row r="39" spans="1:8" ht="16.5">
       <c r="B39" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2">
         <v>0.01</v>
@@ -3430,16 +3491,16 @@
     </row>
     <row r="40" spans="1:8" ht="16.5">
       <c r="B40" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2">
         <v>1.4999999999999999E-2</v>
@@ -3453,16 +3514,16 @@
     </row>
     <row r="41" spans="1:8" ht="16.5">
       <c r="B41" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="2">
         <v>1.4999999999999999E-2</v>
@@ -3476,107 +3537,107 @@
     </row>
     <row r="42" spans="1:8" ht="16.5">
       <c r="B42" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="71.25">
       <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57">
       <c r="B44" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="57">
       <c r="B45" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.5">
       <c r="B46" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5">
       <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="D47" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2">
         <v>0.03</v>
@@ -3584,53 +3645,53 @@
     </row>
     <row r="48" spans="1:8" ht="28.5">
       <c r="B48" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
       <c r="B49" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3638,16 +3699,16 @@
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="B51" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2">
         <v>4.5</v>
@@ -3655,16 +3716,16 @@
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="B52" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -3672,16 +3733,16 @@
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="B53" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -3689,19 +3750,19 @@
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="D54" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="2">
         <v>10</v>
@@ -3709,16 +3770,16 @@
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="B55" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" s="2">
         <v>1.2</v>
@@ -3726,16 +3787,16 @@
     </row>
     <row r="56" spans="1:6" ht="16.5">
       <c r="B56" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56" s="2">
         <v>125</v>
@@ -3743,36 +3804,36 @@
     </row>
     <row r="57" spans="1:6" ht="42.75">
       <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="D57" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5">
       <c r="B58" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2">
         <v>0.5</v>
@@ -3780,16 +3841,16 @@
     </row>
     <row r="59" spans="1:6" ht="16.5">
       <c r="B59" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2">
         <v>0.5</v>
@@ -3797,16 +3858,16 @@
     </row>
     <row r="60" spans="1:6" ht="16.5">
       <c r="B60" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" s="2">
         <v>1.7600000000000001E-2</v>
@@ -3814,16 +3875,16 @@
     </row>
     <row r="61" spans="1:6" ht="16.5">
       <c r="B61" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -3831,16 +3892,16 @@
     </row>
     <row r="62" spans="1:6" ht="16.5">
       <c r="B62" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" s="2">
         <v>4.0000000000000001E-3</v>
@@ -3848,16 +3909,16 @@
     </row>
     <row r="63" spans="1:6" ht="16.5">
       <c r="B63" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" s="2">
         <v>2E-3</v>
@@ -3865,16 +3926,16 @@
     </row>
     <row r="64" spans="1:6" ht="16.5">
       <c r="B64" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="2">
         <v>2E-3</v>
@@ -3882,16 +3943,16 @@
     </row>
     <row r="65" spans="1:6" ht="16.5">
       <c r="B65" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2">
         <v>10</v>
@@ -3899,16 +3960,16 @@
     </row>
     <row r="66" spans="1:6" ht="16.5">
       <c r="B66" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -3916,36 +3977,36 @@
     </row>
     <row r="67" spans="1:6" ht="42.75">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5">
       <c r="B68" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2">
         <v>0.5</v>
@@ -3953,16 +4014,16 @@
     </row>
     <row r="69" spans="1:6" ht="16.5">
       <c r="B69" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2">
         <v>0.5</v>
@@ -3970,16 +4031,16 @@
     </row>
     <row r="70" spans="1:6" ht="16.5">
       <c r="B70" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F70" s="2">
         <v>2.5999999999999999E-3</v>
@@ -3987,16 +4048,16 @@
     </row>
     <row r="71" spans="1:6" ht="16.5">
       <c r="B71" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -4004,16 +4065,16 @@
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="B72" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F72" s="2">
         <v>5.0000000000000001E-4</v>
@@ -4021,16 +4082,16 @@
     </row>
     <row r="73" spans="1:6" ht="16.5">
       <c r="B73" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F73" s="2">
         <v>2.9999999999999997E-4</v>
@@ -4038,16 +4099,16 @@
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="B74" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74" s="2">
         <v>2.9999999999999997E-4</v>
@@ -4055,16 +4116,16 @@
     </row>
     <row r="75" spans="1:6" ht="16.5">
       <c r="B75" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2">
         <v>10</v>
@@ -4072,33 +4133,33 @@
     </row>
     <row r="76" spans="1:6" ht="42.75">
       <c r="B76" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5">
       <c r="B77" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2">
         <v>0.5</v>
@@ -4106,16 +4167,16 @@
     </row>
     <row r="78" spans="1:6" ht="16.5">
       <c r="B78" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2">
         <v>0.5</v>
@@ -4123,16 +4184,16 @@
     </row>
     <row r="79" spans="1:6" ht="16.5">
       <c r="B79" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F79" s="2">
         <v>4.7999999999999996E-3</v>
@@ -4140,16 +4201,16 @@
     </row>
     <row r="80" spans="1:6" ht="16.5">
       <c r="B80" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -4157,16 +4218,16 @@
     </row>
     <row r="81" spans="1:6" ht="16.5">
       <c r="B81" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="2">
         <v>8.9999999999999993E-3</v>
@@ -4174,16 +4235,16 @@
     </row>
     <row r="82" spans="1:6" ht="16.5">
       <c r="B82" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4191,16 +4252,16 @@
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="B83" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="2">
         <v>5.0000000000000001E-3</v>
@@ -4208,16 +4269,16 @@
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="B84" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2">
         <v>10</v>
@@ -4225,19 +4286,19 @@
     </row>
     <row r="85" spans="1:6" ht="16.5">
       <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="D85" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2">
         <v>1.3</v>
@@ -4245,16 +4306,16 @@
     </row>
     <row r="86" spans="1:6" ht="16.5">
       <c r="B86" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2">
         <v>0.8</v>
@@ -4262,19 +4323,19 @@
     </row>
     <row r="87" spans="1:6" ht="17.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
@@ -4282,16 +4343,16 @@
     </row>
     <row r="88" spans="1:6" ht="17.25">
       <c r="B88" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2">
         <v>0.5</v>
@@ -4299,16 +4360,16 @@
     </row>
     <row r="89" spans="1:6" ht="17.25">
       <c r="B89" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -4316,16 +4377,16 @@
     </row>
     <row r="90" spans="1:6" ht="17.25">
       <c r="B90" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2">
         <v>1.1000000000000001</v>
@@ -4333,16 +4394,16 @@
     </row>
     <row r="91" spans="1:6" ht="16.5">
       <c r="B91" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2">
         <v>0.5</v>
@@ -4350,16 +4411,16 @@
     </row>
     <row r="92" spans="1:6" ht="17.25">
       <c r="B92" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2">
         <v>0.05</v>
@@ -4367,19 +4428,19 @@
     </row>
     <row r="93" spans="1:6" ht="16.5">
       <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="D93" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F93" s="2">
         <v>7.2</v>
@@ -4387,16 +4448,16 @@
     </row>
     <row r="94" spans="1:6" ht="16.5">
       <c r="B94" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F94" s="2">
         <v>0.8</v>
@@ -4404,16 +4465,16 @@
     </row>
     <row r="95" spans="1:6" ht="16.5">
       <c r="B95" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F95" s="2">
         <v>7.4</v>
@@ -4421,10 +4482,10 @@
     </row>
     <row r="96" spans="1:6" ht="16.5">
       <c r="B96" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F96" s="1">
         <v>0.13650000000000001</v>
@@ -4439,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA985104-09A1-43F6-A401-EF99B34D1057}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4453,13 +4514,13 @@
     <col min="4" max="4" width="78.25" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4468,27 +4529,24 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>541</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>544</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="42.75">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.75">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4497,138 +4555,141 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="42.75">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="42.75">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="42.75">
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
         <v>-99</v>
@@ -4636,322 +4697,350 @@
       <c r="G9">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
+      <c r="H9">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1">
         <v>875</v>
       </c>
       <c r="G11">
+        <v>1800</v>
+      </c>
+      <c r="H11">
         <v>1630</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>625</v>
       </c>
       <c r="G12">
+        <v>750</v>
+      </c>
+      <c r="H12">
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57">
+    <row r="13" spans="1:8" ht="57">
       <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5">
-      <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0.23</v>
+      </c>
+      <c r="H14">
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75">
+    <row r="19" spans="1:8" ht="42.75">
       <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="F20" s="1">
         <v>55</v>
       </c>
       <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="114">
+    <row r="22" spans="1:8" ht="85.5">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5">
+      <c r="B23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5">
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="85.5">
+    <row r="24" spans="1:8" ht="42.75">
       <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5">
+      <c r="B25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5">
-      <c r="B25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="B26" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -4959,133 +5048,145 @@
       <c r="G26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="57">
+      <c r="H26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5">
+      <c r="B28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5">
-      <c r="B28" s="9" t="s">
+      <c r="G28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="85.5">
+      <c r="B29" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="42.75">
-      <c r="B29" s="9" t="s">
+      <c r="F29" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5">
+      <c r="B30" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42.75">
+      <c r="B31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="B30" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="42.75">
-      <c r="B31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="16.5">
+      <c r="B32" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
-      <c r="B32" s="9" t="s">
+    <row r="33" spans="1:8" ht="16.5">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5">
-      <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="1">
         <v>0.754</v>
@@ -5093,19 +5194,22 @@
       <c r="G33">
         <v>0.754</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5">
+      <c r="H33">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5">
       <c r="B34" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" s="1">
         <v>0.68400000000000005</v>
@@ -5113,19 +5217,22 @@
       <c r="G34">
         <v>0.68400000000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5">
+      <c r="H34">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5">
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1">
         <v>0.754</v>
@@ -5133,19 +5240,22 @@
       <c r="G35">
         <v>0.754</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5">
+      <c r="H35">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5">
       <c r="B36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" s="1">
         <v>0.754</v>
@@ -5153,39 +5263,42 @@
       <c r="G36">
         <v>0.754</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5">
+      <c r="H36">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="B38" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1">
         <v>0.03</v>
@@ -5193,19 +5306,22 @@
       <c r="G38">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5">
+      <c r="H38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5">
       <c r="B39" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="1">
         <v>1.4999999999999999E-2</v>
@@ -5213,213 +5329,231 @@
       <c r="G39">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5">
+      <c r="H39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5">
       <c r="B40" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="B41" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="B42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="114">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="85.5">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="E43" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="99.75">
+      <c r="B44" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E44" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="114">
+      <c r="B45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="71.25">
+      <c r="B46" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="99.75">
-      <c r="B44" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="114">
-      <c r="B45" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="9" t="s">
+    <row r="47" spans="1:8" ht="16.5">
+      <c r="A47" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="57">
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57">
+    <row r="48" spans="1:8" ht="57">
       <c r="B48" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
       <c r="B49" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -5427,16 +5561,16 @@
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="B51" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1">
         <v>3.5</v>
@@ -5444,16 +5578,16 @@
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="B52" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -5461,16 +5595,16 @@
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="B53" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -5478,19 +5612,19 @@
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="D54" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="1">
         <v>10</v>
@@ -5498,16 +5632,16 @@
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="B55" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" s="1">
         <v>1.2</v>
@@ -5515,16 +5649,16 @@
     </row>
     <row r="56" spans="1:6" ht="16.5">
       <c r="B56" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56" s="1">
         <v>80</v>
@@ -5532,36 +5666,36 @@
     </row>
     <row r="57" spans="1:6" ht="42.75">
       <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="D57" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5">
       <c r="B58" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="1">
         <v>0.5</v>
@@ -5569,16 +5703,16 @@
     </row>
     <row r="59" spans="1:6" ht="16.5">
       <c r="B59" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="1">
         <v>0.5</v>
@@ -5586,16 +5720,16 @@
     </row>
     <row r="60" spans="1:6" ht="16.5">
       <c r="B60" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1">
         <v>1.44E-2</v>
@@ -5603,16 +5737,16 @@
     </row>
     <row r="61" spans="1:6" ht="16.5">
       <c r="B61" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
@@ -5620,16 +5754,16 @@
     </row>
     <row r="62" spans="1:6" ht="16.5">
       <c r="B62" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1">
         <v>4.3E-3</v>
@@ -5637,16 +5771,16 @@
     </row>
     <row r="63" spans="1:6" ht="16.5">
       <c r="B63" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1">
         <v>2.0999999999999999E-3</v>
@@ -5654,16 +5788,16 @@
     </row>
     <row r="64" spans="1:6" ht="16.5">
       <c r="B64" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1">
         <v>2.0999999999999999E-3</v>
@@ -5671,16 +5805,16 @@
     </row>
     <row r="65" spans="1:6" ht="16.5">
       <c r="B65" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="1">
         <v>10</v>
@@ -5688,16 +5822,16 @@
     </row>
     <row r="66" spans="1:6" ht="16.5">
       <c r="B66" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -5705,36 +5839,36 @@
     </row>
     <row r="67" spans="1:6" ht="42.75">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5">
       <c r="B68" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="1">
         <v>0.5</v>
@@ -5742,16 +5876,16 @@
     </row>
     <row r="69" spans="1:6" ht="16.5">
       <c r="B69" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="1">
         <v>0.5</v>
@@ -5759,16 +5893,16 @@
     </row>
     <row r="70" spans="1:6" ht="16.5">
       <c r="B70" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F70" s="1">
         <v>1.7600000000000001E-3</v>
@@ -5776,16 +5910,16 @@
     </row>
     <row r="71" spans="1:6" ht="16.5">
       <c r="B71" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
@@ -5793,16 +5927,16 @@
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="B72" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F72" s="1">
         <v>4.0000000000000002E-4</v>
@@ -5810,16 +5944,16 @@
     </row>
     <row r="73" spans="1:6" ht="16.5">
       <c r="B73" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F73" s="1">
         <v>2.0000000000000001E-4</v>
@@ -5827,16 +5961,16 @@
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="B74" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74" s="1">
         <v>2.0000000000000001E-4</v>
@@ -5844,16 +5978,16 @@
     </row>
     <row r="75" spans="1:6" ht="16.5">
       <c r="B75" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" s="1">
         <v>10</v>
@@ -5861,33 +5995,33 @@
     </row>
     <row r="76" spans="1:6" ht="42.75">
       <c r="B76" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5">
       <c r="B77" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="1">
         <v>0.5</v>
@@ -5895,16 +6029,16 @@
     </row>
     <row r="78" spans="1:6" ht="16.5">
       <c r="B78" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F78" s="1">
         <v>0.5</v>
@@ -5912,16 +6046,16 @@
     </row>
     <row r="79" spans="1:6" ht="16.5">
       <c r="B79" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F79" s="1">
         <v>4.0000000000000001E-3</v>
@@ -5929,16 +6063,16 @@
     </row>
     <row r="80" spans="1:6" ht="16.5">
       <c r="B80" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
@@ -5946,16 +6080,16 @@
     </row>
     <row r="81" spans="1:6" ht="16.5">
       <c r="B81" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="1">
         <v>9.2999999999999992E-3</v>
@@ -5963,16 +6097,16 @@
     </row>
     <row r="82" spans="1:6" ht="16.5">
       <c r="B82" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" s="1">
         <v>4.7000000000000002E-3</v>
@@ -5980,16 +6114,16 @@
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="B83" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="1">
         <v>4.7000000000000002E-3</v>
@@ -5997,16 +6131,16 @@
     </row>
     <row r="84" spans="1:6" ht="16.5">
       <c r="B84" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F84" s="1">
         <v>10</v>
@@ -6014,19 +6148,19 @@
     </row>
     <row r="85" spans="1:6" ht="16.5">
       <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="D85" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85" s="1">
         <v>1.3</v>
@@ -6034,16 +6168,16 @@
     </row>
     <row r="86" spans="1:6" ht="16.5">
       <c r="B86" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F86" s="1">
         <v>0.8</v>
@@ -6051,19 +6185,19 @@
     </row>
     <row r="87" spans="1:6" ht="17.25">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" s="1">
         <v>1</v>
@@ -6071,16 +6205,16 @@
     </row>
     <row r="88" spans="1:6" ht="17.25">
       <c r="B88" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F88" s="1">
         <v>0.5</v>
@@ -6088,16 +6222,16 @@
     </row>
     <row r="89" spans="1:6" ht="17.25">
       <c r="B89" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -6105,16 +6239,16 @@
     </row>
     <row r="90" spans="1:6" ht="17.25">
       <c r="B90" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F90" s="1">
         <v>1.1000000000000001</v>
@@ -6122,16 +6256,16 @@
     </row>
     <row r="91" spans="1:6" ht="16.5">
       <c r="B91" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" s="1">
         <v>0.5</v>
@@ -6139,16 +6273,16 @@
     </row>
     <row r="92" spans="1:6" ht="17.25">
       <c r="B92" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F92" s="1">
         <v>0.05</v>
@@ -6156,19 +6290,19 @@
     </row>
     <row r="93" spans="1:6" ht="16.5">
       <c r="A93" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="D93" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F93" s="1">
         <v>7.2</v>
@@ -6176,16 +6310,16 @@
     </row>
     <row r="94" spans="1:6" ht="16.5">
       <c r="B94" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F94" s="1">
         <v>0.8</v>
@@ -6193,16 +6327,16 @@
     </row>
     <row r="95" spans="1:6" ht="16.5">
       <c r="B95" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F95" s="1">
         <v>7.4</v>
@@ -6234,46 +6368,46 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
         <v>412</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>413</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" t="s">
         <v>414</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G1" t="s">
-        <v>415</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="B2" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -6282,22 +6416,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="B3" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
@@ -6306,24 +6440,24 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="B4" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -6332,24 +6466,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="B5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -6358,50 +6492,50 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="B6" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H6" s="9">
         <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="B7" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G7" s="9">
         <v>0.4</v>
@@ -6410,12 +6544,12 @@
         <v>0.3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="B8" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6428,24 +6562,24 @@
         <v>120</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
       <c r="B9" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>453</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G9" s="9">
         <v>360</v>
@@ -6454,24 +6588,24 @@
         <v>360</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -6480,50 +6614,50 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="B11" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="B12" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G12" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6532,24 +6666,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="B13" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -6558,24 +6692,24 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="B14" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -6584,24 +6718,24 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
       <c r="B15" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G15" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6610,24 +6744,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
       <c r="B16" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -6636,24 +6770,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="16.5">
       <c r="B17" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -6662,24 +6796,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.5">
       <c r="B18" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G18" s="9">
         <v>2.5000000000000001E-2</v>
@@ -6688,24 +6822,24 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.5">
       <c r="B19" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -6714,24 +6848,24 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="16.5">
       <c r="B20" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -6740,24 +6874,24 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="16.5">
       <c r="B21" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -6766,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="16.5">
@@ -6799,7 +6933,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6808,57 +6942,57 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="142.5">
       <c r="A2" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" t="s">
-        <v>379</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" t="s">
         <v>380</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3" t="s">
-        <v>381</v>
       </c>
       <c r="F3">
         <v>0.104</v>
@@ -6867,16 +7001,16 @@
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4">
         <v>0.3</v>
@@ -6885,16 +7019,16 @@
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F5">
         <v>0.41</v>
@@ -6903,16 +7037,16 @@
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6">
         <v>0.06</v>
@@ -6920,37 +7054,37 @@
     </row>
     <row r="7" spans="1:8" ht="185.25">
       <c r="A7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7" t="s">
-        <v>391</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F8">
         <v>25.585999999999999</v>
@@ -6959,16 +7093,16 @@
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F9">
         <v>1.47</v>
@@ -6977,16 +7111,16 @@
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" t="s">
         <v>397</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" t="s">
-        <v>398</v>
       </c>
       <c r="F10">
         <v>1.47</v>
@@ -6994,16 +7128,16 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -7012,13 +7146,13 @@
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F12">
         <v>0.03</v>
@@ -7027,13 +7161,13 @@
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F13">
         <v>0.2</v>
@@ -7042,13 +7176,13 @@
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -7057,13 +7191,13 @@
     <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F15">
         <v>-0.3</v>
@@ -7095,7 +7229,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7104,99 +7238,99 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" t="s">
-        <v>423</v>
-      </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7207,42 +7341,42 @@
     </row>
     <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="B11" s="9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F11">
         <v>6.7531809999999997</v>
